--- a/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/data/Chủ Nghĩa Xã Hội Khoa Học/Chương 3.xlsx
+++ b/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/data/Chủ Nghĩa Xã Hội Khoa Học/Chương 3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bai Tap\kiemTraTracNghiem\Kiểm tra trắc nghiệm\Kiểm tra trắc nghiệm\bin\Debug\data\Chủ Nghĩa Xã Hội Khoa Học\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bai Tap\Ung_Dung_On_Tap_Ly_Thuyet\Kiểm tra trắc nghiệm\Kiểm tra trắc nghiệm\bin\Debug\data\Chủ Nghĩa Xã Hội Khoa Học\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262CAABD-7076-4FFE-B747-6EDB7A66BF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8FCB00-5ED8-4CFB-8E59-D4CD48AF79DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="150">
   <si>
     <t>Câu Hỏi</t>
   </si>
@@ -43,13 +43,445 @@
   </si>
   <si>
     <t>Đáp án đúng</t>
+  </si>
+  <si>
+    <t>Thời đại mới – thời đại quá độ lên CNXH trên phạm vi toàn thế giới bắt đầu từ:</t>
+  </si>
+  <si>
+    <t>Từ cách mạng tháng 2 năm 1917</t>
+  </si>
+  <si>
+    <t>Từ sau CMT10 Nga năm 1917 thành công</t>
+  </si>
+  <si>
+    <t>Từ khi bắt đầu thực hiện chính sách kinh tế mới (NEP) 1921</t>
+  </si>
+  <si>
+    <t>Từ sau khi Liên Xô kết thúc thời kỳ quá độ</t>
+  </si>
+  <si>
+    <t>Thực chất của TKQĐ lên CNXH là gì?</t>
+  </si>
+  <si>
+    <t>Là cuộc cải biến cách mạng về chế độ chính trị</t>
+  </si>
+  <si>
+    <t>Là cuộc cải biến cách mạng về nông nghiệp</t>
+  </si>
+  <si>
+    <t>Là cuộc cải biến cách mạng về tư tưởng</t>
+  </si>
+  <si>
+    <t>Là cuộc cải biến cách mạng về trên tất cả các mặt.</t>
+  </si>
+  <si>
+    <t>Trong những mâu thuẫn của thời đại ngày nay, mâu thuẫn nào nổi bật, xuyên suốt thời đại và mang tính toàn cầu?</t>
+  </si>
+  <si>
+    <t>Mâu thuẫn giữa CNXH và CNTB</t>
+  </si>
+  <si>
+    <t>Mâu thuẫn giữa tư bản và lao động</t>
+  </si>
+  <si>
+    <t>Mâu thuẫn giữa các dân tộc thuộc địa và phụ thuộc với CNĐQ</t>
+  </si>
+  <si>
+    <t>Mâu thuẫn giữa các nước tư bản với nhau.</t>
+  </si>
+  <si>
+    <t>Giai cấp công nhân thông qua con đường nào để giải phóng mình và giải phóng nhân dân lao động?</t>
+  </si>
+  <si>
+    <t>Biểu tình</t>
+  </si>
+  <si>
+    <t>Cải cách</t>
+  </si>
+  <si>
+    <t>Cách mạng xã hội chủ nghĩa</t>
+  </si>
+  <si>
+    <t>Bãi công</t>
+  </si>
+  <si>
+    <t>Nguyên nhân sâu xa của cách mạng xã hội chủ nghĩa là gì?</t>
+  </si>
+  <si>
+    <t>Do ý muốn chủ quan của giai cấp công nhân</t>
+  </si>
+  <si>
+    <t>Do mâu thuẫn giữa lực lượng sản xuất và quan hệ sản xuất</t>
+  </si>
+  <si>
+    <t>Do sự đối xử quá thậm tệ của giai cấp tư sản</t>
+  </si>
+  <si>
+    <t>Do sự kích động của kẻ thù</t>
+  </si>
+  <si>
+    <t>Cách mạng xã hội chủ nghĩa do giai cấp nào lãnh đạo?</t>
+  </si>
+  <si>
+    <t>Giai cấp chủ nô</t>
+  </si>
+  <si>
+    <t>Giai cấp tư sản</t>
+  </si>
+  <si>
+    <t>Giai cấp nông dân</t>
+  </si>
+  <si>
+    <t>Giai cấp công nhân</t>
+  </si>
+  <si>
+    <t>Cương lĩnh xây dựng đất nước trong thời kỳ quá độ lên chủ nghĩa xã hội được Đảng ta thông qua tại Đại hội nào?</t>
+  </si>
+  <si>
+    <t>Đại hội VII</t>
+  </si>
+  <si>
+    <t>Đại hội VIII</t>
+  </si>
+  <si>
+    <t>Đại hội IX</t>
+  </si>
+  <si>
+    <t>Đại hội X</t>
+  </si>
+  <si>
+    <t>Theo các nhà nghiên cứu chủ nghĩa xã hội khoa học, quan niệm thời đại ngày nay là:</t>
+  </si>
+  <si>
+    <t>Quá độ lên chủ nghĩa tư bản từ chế độ phong kiến.</t>
+  </si>
+  <si>
+    <t>Quá độ lên chủ nghĩa xã hội từ chế độ phong kiến.</t>
+  </si>
+  <si>
+    <t>Chủ nghĩa xã hội là giai đoạn từ xã hội phong kiến quá độ lên giai đoạn cao hơn</t>
+  </si>
+  <si>
+    <t>Quá độ lên chủ nghĩa xã hội từ chế độ chủ nghĩa tư bản trên phạm vi toàn thế giới mở đầu là cuộc cách mạng tháng Mười Nga.</t>
+  </si>
+  <si>
+    <t>Giai cấp công nhân là người lao động gắn với nền sản xuất :</t>
+  </si>
+  <si>
+    <t>Nông nghiệp</t>
+  </si>
+  <si>
+    <t>Thủ công nghiệp</t>
+  </si>
+  <si>
+    <t>Nền công nghiệp hiện đại</t>
+  </si>
+  <si>
+    <t>Đại nông nghiệp</t>
+  </si>
+  <si>
+    <t>Chủ thể của lịch sử, lực lượng sáng tạo ra lịch sử là :</t>
+  </si>
+  <si>
+    <t>Vĩ nhân, lãnh tụ.</t>
+  </si>
+  <si>
+    <t>Tầng lớp trí thức</t>
+  </si>
+  <si>
+    <t>Quần chúng nhân dân.</t>
+  </si>
+  <si>
+    <t>Mọi người</t>
+  </si>
+  <si>
+    <t>Cơ sở vật chất – kỹ thuật của chủ nghĩa xã hội là?</t>
+  </si>
+  <si>
+    <t>Nền sản xuất công nghiệp hiện đại</t>
+  </si>
+  <si>
+    <t>Nền nông nghiệp truyền thống</t>
+  </si>
+  <si>
+    <t>Nền kinh tế thị trường</t>
+  </si>
+  <si>
+    <t>Nền kinh tế thị trường định hướng tư bản chủ nghĩa</t>
+  </si>
+  <si>
+    <t>Nguyên tắc phân phối cơ bản nhất của xã hội xã hội chủ nghĩa là:</t>
+  </si>
+  <si>
+    <t>Phân phối theo lao động</t>
+  </si>
+  <si>
+    <t>Phân phối cào bằng</t>
+  </si>
+  <si>
+    <t>Phân phối theo nhu cầu</t>
+  </si>
+  <si>
+    <t>Phân phối theo mức đống góp cổ phần</t>
+  </si>
+  <si>
+    <t>Nhà nước xã hội chủ nghĩa mang bản chất giai cấp công nhân, tính nhân dân rộng rãi và tính dân tộc sâu sắc; thực hiện quyền lực và lợi ích của ai?</t>
+  </si>
+  <si>
+    <t>Nhân dân</t>
+  </si>
+  <si>
+    <t>Công nhân</t>
+  </si>
+  <si>
+    <t>Nông dân</t>
+  </si>
+  <si>
+    <t>Trí thức</t>
+  </si>
+  <si>
+    <t>Chủ nghĩa xã hội là?</t>
+  </si>
+  <si>
+    <t>Giai đoạn đầu của hình thái kinh tế - xã hội cộng sản chủ nghĩa</t>
+  </si>
+  <si>
+    <t>Giai đoạn đầu của hình thái kinh tế - xã hội tư bản</t>
+  </si>
+  <si>
+    <t>Giai đoạn đầu của hình thái kinh tế - xã hội phong kiến</t>
+  </si>
+  <si>
+    <t>Giai đoạn cuối cùng của hình thái kinh tế - xã hội cộng sản chủ nghĩa</t>
+  </si>
+  <si>
+    <t>Tác phẩm “phê phán cương lĩnh Gôta” viết năm nào?</t>
+  </si>
+  <si>
+    <t>Lênin cho rằng, đối với những nước chưa có chủ nghĩa tư bản phát triển cao cần:</t>
+  </si>
+  <si>
+    <t>Cần phải có một thời kỳ quá độ khá lâu dài từ chủ nghĩa tư bản lên chủ nghĩa xã hội</t>
+  </si>
+  <si>
+    <t>Cần phải có một thời kỳ quá độ khá lâu dài từ chiếm hữu nô lệ lên chủ nghĩa xã hội</t>
+  </si>
+  <si>
+    <t>Cần phải có một thời kỳ quá độ khá lâu dài từ xã hội phong kiến lên chủ nghĩa xã hội</t>
+  </si>
+  <si>
+    <t>Cần phải có một thời kỳ quá độ khá lâu dài từ chủ nghĩa tư bản lên chủ nghĩa đế quốc</t>
+  </si>
+  <si>
+    <t>Dưới ánh sáng tư tưởng Hồ Chí Minh, Đảng ta nhấn mạnh mục tiêu phấn đấu cao nhất của chế độ ta là:</t>
+  </si>
+  <si>
+    <t>Dân giàu, nước mạnh</t>
+  </si>
+  <si>
+    <t>Chăm lo cho hạnh phúc của con người</t>
+  </si>
+  <si>
+    <t>Dân chủ công bằng</t>
+  </si>
+  <si>
+    <t>Xã hội văn minh</t>
+  </si>
+  <si>
+    <t>Theo Hồ Chí Minh, cách mạng muốn giành được thắng lợi trước hết cần phải có?</t>
+  </si>
+  <si>
+    <t>Đảng lãnh đạo</t>
+  </si>
+  <si>
+    <t>Sự đoàn kết</t>
+  </si>
+  <si>
+    <t>Tinh thần yêu nước nồng nàn</t>
+  </si>
+  <si>
+    <t>Lòng yêu nước và tinh thần đoàn kết</t>
+  </si>
+  <si>
+    <t>Theo Hồ Chí Minh, cách mạng giải phóng dân tộc muốn thắng lợi phải làm gì?</t>
+  </si>
+  <si>
+    <t>Đi theo con đường của cách mạng vô sản</t>
+  </si>
+  <si>
+    <t>Đi theo khuynh hướng Phong kiến</t>
+  </si>
+  <si>
+    <t>Đi theo con đường của cách mạng Pháp, Mỹ</t>
+  </si>
+  <si>
+    <t>Đi theo khuynh hướng tư sản</t>
+  </si>
+  <si>
+    <t>Hãy điền vào dấu ...đoạn trích sau: “...đã đến với Người như một ánh sáng kỳ diệu nâng cao về chất tất cả những hiểu biết và tình cảm cách mạng mà Người hằng nung nấu”</t>
+  </si>
+  <si>
+    <t>Luận cương về những vấn đề dân tộc và thuộc địa</t>
+  </si>
+  <si>
+    <t>Lòng yêu nước của nhân dân Việt Nam</t>
+  </si>
+  <si>
+    <t>Chủ nghĩa Mác – Lênin</t>
+  </si>
+  <si>
+    <t>Lòng căm thù giặc</t>
+  </si>
+  <si>
+    <t>Nói đến con đường lên chủ nghĩa xã hội (CNXH) một cách khoa học, hợp quy luật, thì phải đề cập tới:</t>
+  </si>
+  <si>
+    <t>Thời kỳ quá độ (TKQĐ) từ chủ nghĩa tư bản (CNTB) lên CNXH</t>
+  </si>
+  <si>
+    <t>Thời kỳ quá độ bỏ qua chế độ tư bản chủ nghĩa (TBCN) - TKQĐ gián tiếp</t>
+  </si>
+  <si>
+    <t>Thì phải thấy đó đều là các xã hội ở TKQĐ gián tiếp với những trình độ khác nhau</t>
+  </si>
+  <si>
+    <t>Thời kỳ quá độ gián tiếp với những trình độ khác nhau</t>
+  </si>
+  <si>
+    <t>Từ độc quyền thay thế cạnh tranh, việc mở mang thị trường thế giới đã đạt đến giới hạn địa lý toàn cầu</t>
+  </si>
+  <si>
+    <t>Rút ngắn tiến trình đi lên CNXH</t>
+  </si>
+  <si>
+    <t>Không phải trải qua giai đoạn phát triển TBCN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theo V. I. Lênin, từ cuối thế kỷ XIX, CNTB có nhiều biến chuyển quan trọng: </t>
+  </si>
+  <si>
+    <t>Chủ nghĩa tư bản chuyển biến từ giai đoạn tự do cạnh tranh sang giai đoạn đi lên CNXH</t>
+  </si>
+  <si>
+    <t>Sau Cách mạng Tháng Mười Nga năm 1917, V. I. Lênin cho rằng các nước lạc hậu phụ thuộc, thuộc địa ở phương Đông cũng có thể?</t>
+  </si>
+  <si>
+    <t>Thực hiện cách mạng XHCN và TKQĐ, khi liên minh với nước Nga Xôviết.</t>
+  </si>
+  <si>
+    <t>Thực hiện cách mạng TBCN và TKQĐ, khi liên minh với nước Nga Xôviết.</t>
+  </si>
+  <si>
+    <t>Thực hiện công nghiệp hóa, hiện đại hóa và TKQĐ, khi liên minh với nước Nga Xôviết.</t>
+  </si>
+  <si>
+    <t>Cách mạng Tháng Mười khởi đầu TKQĐ gián tiếp ở nước Nga, đồng thời mở ra:</t>
+  </si>
+  <si>
+    <t>“Thời đại quá độ từ CNTB lên CNXH trên phạm vi toàn thế giới”</t>
+  </si>
+  <si>
+    <t>“Thời đại quá độ từ xã hội phong kiến lên CNXH trên phạm vi toàn thế giới”</t>
+  </si>
+  <si>
+    <t>“Thời đại quá độ từ CNTB lên CNXH ở các nước phương Tây”</t>
+  </si>
+  <si>
+    <t>“Thời đại quá độ từ CNTB lên CNXH ở các nước thuộc địa”</t>
+  </si>
+  <si>
+    <t>Sau Cách mạng Tháng Mười, CNTB, CNĐQ phương Tây thường xuyên đe dọa, rồi trực tiếp tấn công Liên Xô và các nước XHCN bằng các cuộc tấn công?</t>
+  </si>
+  <si>
+    <t>Cuộc chiến tranh can thiệp vào nước Nga Xô-viết (1918 - 1921); chiến tranh xâm lược Liên Xô (1941 - 1945); chiến tranh lạnh chống phe XHCN (1945 - 1991); chiến tranh xâm lược Việt Nam của thực dân Pháp, đế quốc Mỹ (1945 - 1975); các cuộc chiến tranh xâm lược Triều Tiên (năm 1953), Cu-ba (năm 1961). Ngoài ra, phương Tây còn tiến hành bao vây kinh tế các nước XHCN, ra sức đàn áp phong trào giải phóng dân tộc;…</t>
+  </si>
+  <si>
+    <t>Cuộc chiến tranh can thiệp vào nước Nga Xô-viết (1918 - 1921); chiến tranh xâm lược Liên Xô (1941 - 1945);</t>
+  </si>
+  <si>
+    <t>Cuộc chiến tranh can thiệp vào nước Nga Xô-viết (1918 - 1921); chiến tranh xâm lược Liên Xô (1941 - 1948); chiến tranh lạnh chống phe XHCN (1945 - 1991); chiến tranh xâm lược Việt Nam của thực dân Pháp, đế quốc Mỹ (1945 - 1975); các cuộc chiến tranh xâm lược Triều Tiên (năm 1953), Cu-ba (năm 1961).</t>
+  </si>
+  <si>
+    <t>Cuộc chiến tranh can thiệp vào nước Nga Xô-viết (1918 - 1921); chiến tranh xâm lược Liên Xô (1941 - 1948); chiến tranh lạnh chống phe XHCN (1945 - 1995); chiến tranh xâm lược Việt Nam của thực dân Pháp, đế quốc Mỹ (1945 - 1975); các cuộc chiến tranh xâm lược Triều Tiên (năm 1953), Cu-ba (năm 1961).</t>
+  </si>
+  <si>
+    <t>Sau Chiến tranh thế giới thứ hai, hệ thống XHCN ra đời, CNTB phương Tây thi hành hàng loạt biện pháp:</t>
+  </si>
+  <si>
+    <t>Từ độc quyền nhà nước chuyển thành độc quyền quốc tế; thiết lập trật tự thế giới do phương Tây dẫn dắt với các định chế kinh tế, chính trị, quân sự khu vực và toàn cầu, như NATO, IMF, WB, WTO để thống trị, chi phối thế giới; đẩy mạnh cải tiến quản lý sản xuất; chia sẻ lợi nhuận cho bộ phận công nhân quý tộc, tạo cách biệt giữa công nhân phương Tây với công nhân các nước đang phát triển để tiếp tục bóc lột các nước đó; thúc đẩy cách mạng khoa học - kỹ thuật để tăng năng suất lao động, phát triển sản xuất; tấn công phe XHCN về mọi mặt bằng Chiến tranh lạnh, chiến tranh nóng cục bộ, răn đe hạt nhân...</t>
+  </si>
+  <si>
+    <t>Từ tự do cạnh tranh chuyển thành độc quyền quốc tế; thiết lập trật tự thế giới do phương Tây dẫn dắt với các định chế kinh tế, chính trị, quân sự khu vực và toàn cầu, như NATO, IMF, WB, WTO để thống trị, chi phối thế giới; đẩy mạnh cải tiến quản lý sản xuất; chia sẻ lợi nhuận cho bộ phận công nhân quý tộc, tạo cách biệt giữa công nhân phương Tây với công nhân các nước đang phát triển để tiếp tục bóc lột các nước đó; thúc đẩy cách mạng khoa học - kỹ thuật để tăng năng suất lao động, phát triển sản xuất; tấn công phe XHCN về mọi mặt bằng Chiến tranh lạnh, chiến tranh nóng cục bộ, răn đe hạt nhân...</t>
+  </si>
+  <si>
+    <t>Cuộc chiến tranh can thiệp vào nước Nga Xô-viết (1918 - 1921); chiến tranh xâm lược Liên Xô (1941 - 1945); chiến tranh lạnh chống phe XHCN (1945 - 1995); chiến tranh xâm lược Việt Nam của thực dân Pháp, đế quốc Mỹ (1945 - 1975); các cuộc chiến tranh xâm lược Triều Tiên (năm 1953), Cu-ba (năm 1961).</t>
+  </si>
+  <si>
+    <t>Chủ nghĩa xã hội Xôviết sụp đổ vì:</t>
+  </si>
+  <si>
+    <t>Không phải vì bản thân chính sách cộng sản thời chiến sai lầm, mà do nó bị tuyệt đối hóa, thực hiện cực đoan, kéo dài, thiếu linh hoạt, dẫn đến sự biến dạng, tha hóa, lộng quyền, lạm quyền của một bộ phận trong đại diện chủ sở hữu trực tiếp quản lý kinh tế, hành chính.</t>
+  </si>
+  <si>
+    <t>Thời đại mới nên những lý luận không còn phù hợp</t>
+  </si>
+  <si>
+    <t>Sự lạm quyền, tham ô của cán bộ đảng viên</t>
+  </si>
+  <si>
+    <t>Trong sở hữu nhà nước, quyền chủ sở hữu của người lao động bị suy giảm, xói mòn</t>
+  </si>
+  <si>
+    <t>Từ Đại hội VII của Đảng (năm 1991) đến nay, đường lối thực hiện TKQĐ được xác định là:</t>
+  </si>
+  <si>
+    <t>“bỏ qua chế độ TBCN”, tức là TKQĐ gián tiếp, và được xây dựng, phát triển ngày càng hoàn thiện”</t>
+  </si>
+  <si>
+    <t>“bỏ qua chế độ phong kiến”, tức là TKQĐ gián tiếp, và được xây dựng, phát triển ngày càng hoàn thiện”</t>
+  </si>
+  <si>
+    <t>“bỏ qua chế độ chiếm hữu nô lệ”, tức là TKQĐ gián tiếp, và được xây dựng, phát triển ngày càng hoàn thiện”</t>
+  </si>
+  <si>
+    <t>“bỏ qua chế độ phong kiến”, tức là TKQĐ gián tiếp, và được xây dựng, phát triển công nghiệp”</t>
+  </si>
+  <si>
+    <t>Một trong những điểm nhấn sáng tạo của Ph. Ăngghen là:</t>
+  </si>
+  <si>
+    <t>Tư duy biện chứng về con đường lên chủ nghĩa xã hội</t>
+  </si>
+  <si>
+    <t>Tư duy biện chứng về con đường phát triển tư bản</t>
+  </si>
+  <si>
+    <t>Tư duy biện chứng về con đường quá độ lên chủ nghĩa xã hội</t>
+  </si>
+  <si>
+    <t>Tư duy siêu hình về con đường quá độ lên chủ nghĩa xã hội</t>
+  </si>
+  <si>
+    <t>Tư duy biện chứng của Ph. Ăngghen về phương thức phát triển “rút ngắn” cho thấy rõ, nước ta có điều kiện để:</t>
+  </si>
+  <si>
+    <t>Bỏ qua chế độ tư bản chủ nghĩa để tiến lên chủ nghĩa xã hội</t>
+  </si>
+  <si>
+    <t>Bỏ qua chế độ phong kiến để tiến lên chủ nghĩa xã hội</t>
+  </si>
+  <si>
+    <t>Bỏ qua chế độ chiếm hữu nô lệ để tiến lên chủ nghĩa xã hội</t>
+  </si>
+  <si>
+    <t>Bỏ qua chế độ tư bản chủ nghĩa tiến thẳng tới cộng sản chủ nghĩa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +503,31 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -99,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -111,8 +568,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -393,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -428,59 +899,604 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D87" s="5"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="E92" s="6"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C117" s="5"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1875</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1857</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1879</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1824</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
